--- a/rnaSample/rnaSample_hbrown_02.10.20.xlsx
+++ b/rnaSample/rnaSample_hbrown_02.10.20.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">02.10.20</t>
   </si>
   <si>
-    <t xml:space="preserve">Trizol</t>
+    <t xml:space="preserve">TRIzol</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
@@ -77,10 +77,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -112,19 +113,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -172,7 +160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,11 +173,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -213,10 +197,10 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
   </cols>
@@ -228,7 +212,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -273,7 +257,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -283,20 +267,19 @@
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -326,7 +309,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -336,20 +319,19 @@
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
@@ -365,7 +347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -375,20 +357,19 @@
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="0" t="s">
@@ -404,7 +385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
@@ -414,20 +395,19 @@
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="0" t="s">
@@ -443,7 +423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
@@ -453,20 +433,19 @@
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="0" t="s">
@@ -482,7 +461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
@@ -492,20 +471,19 @@
       <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="0" t="s">
@@ -521,7 +499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
@@ -531,20 +509,19 @@
       <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="0" t="s">
@@ -560,7 +537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
@@ -570,20 +547,19 @@
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="0" t="s">
@@ -599,7 +575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
@@ -609,20 +585,19 @@
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="0" t="s">
@@ -638,7 +613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
@@ -648,20 +623,19 @@
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="0" t="s">
@@ -677,7 +651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
@@ -687,20 +661,19 @@
       <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="0" t="s">
@@ -716,7 +689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
@@ -726,20 +699,19 @@
       <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="0" t="s">
@@ -755,7 +727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
@@ -765,20 +737,19 @@
       <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="0" t="s">
@@ -794,7 +765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
@@ -804,20 +775,19 @@
       <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
@@ -833,7 +803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
@@ -843,20 +813,19 @@
       <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
@@ -872,7 +841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
@@ -882,20 +851,19 @@
       <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="0" t="s">
@@ -911,7 +879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
@@ -921,20 +889,19 @@
       <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
@@ -950,7 +917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
@@ -960,20 +927,19 @@
       <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I19" s="0" t="s">
@@ -989,7 +955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -999,20 +965,19 @@
       <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I20" s="0" t="s">
@@ -1028,7 +993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
@@ -1038,20 +1003,19 @@
       <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I21" s="0" t="s">
@@ -1067,7 +1031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
@@ -1077,20 +1041,19 @@
       <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I22" s="0" t="s">
@@ -1106,7 +1069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
@@ -1116,20 +1079,19 @@
       <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I23" s="0" t="s">
@@ -1145,7 +1107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
@@ -1155,20 +1117,19 @@
       <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I24" s="0" t="s">
@@ -1184,7 +1145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
@@ -1194,20 +1155,19 @@
       <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I25" s="0" t="s">
@@ -1223,7 +1183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
@@ -1233,20 +1193,19 @@
       <c r="C26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I26" s="0" t="s">
@@ -1262,7 +1221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
@@ -1272,20 +1231,19 @@
       <c r="C27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I27" s="0" t="s">
@@ -1302,12 +1260,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G27" type="list">
-      <formula1>"DirectZol,Trizol"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/rnaSample/rnaSample_hbrown_02.10.20.xlsx
+++ b/rnaSample/rnaSample_hbrown_02.10.20.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">01.16.20</t>
   </si>
   <si>
-    <t xml:space="preserve">BROWN</t>
+    <t xml:space="preserve">H.BROWN</t>
   </si>
   <si>
     <t xml:space="preserve">02.10.20</t>
@@ -197,7 +197,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H27"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -270,7 +270,7 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -279,7 +279,8 @@
       <c r="G2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="b">
+      <c r="H2" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -322,7 +323,7 @@
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -331,7 +332,8 @@
       <c r="G3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="b">
+      <c r="H3" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
@@ -360,7 +362,7 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -369,7 +371,8 @@
       <c r="G4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="b">
+      <c r="H4" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I4" s="0" t="s">
@@ -398,7 +401,7 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -407,7 +410,8 @@
       <c r="G5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3" t="b">
+      <c r="H5" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I5" s="0" t="s">
@@ -436,7 +440,7 @@
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -445,7 +449,8 @@
       <c r="G6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3" t="b">
+      <c r="H6" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I6" s="0" t="s">
@@ -474,7 +479,7 @@
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -483,7 +488,8 @@
       <c r="G7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="3" t="b">
+      <c r="H7" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I7" s="0" t="s">
@@ -512,7 +518,7 @@
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="n">
@@ -521,7 +527,8 @@
       <c r="G8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3" t="b">
+      <c r="H8" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I8" s="0" t="s">
@@ -550,7 +557,7 @@
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="n">
@@ -559,7 +566,8 @@
       <c r="G9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="3" t="b">
+      <c r="H9" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I9" s="0" t="s">
@@ -588,7 +596,7 @@
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="n">
@@ -597,7 +605,8 @@
       <c r="G10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="3" t="b">
+      <c r="H10" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I10" s="0" t="s">
@@ -626,7 +635,7 @@
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="n">
@@ -635,7 +644,8 @@
       <c r="G11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="3" t="b">
+      <c r="H11" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I11" s="0" t="s">
@@ -664,7 +674,7 @@
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -673,7 +683,8 @@
       <c r="G12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="3" t="b">
+      <c r="H12" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I12" s="0" t="s">
@@ -702,7 +713,7 @@
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="n">
@@ -711,7 +722,8 @@
       <c r="G13" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="3" t="b">
+      <c r="H13" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I13" s="0" t="s">
@@ -740,7 +752,7 @@
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
@@ -749,7 +761,8 @@
       <c r="G14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="3" t="b">
+      <c r="H14" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I14" s="0" t="s">
@@ -778,7 +791,7 @@
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="n">
@@ -787,7 +800,8 @@
       <c r="G15" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="3" t="b">
+      <c r="H15" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
@@ -816,7 +830,7 @@
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="n">
@@ -825,7 +839,8 @@
       <c r="G16" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="3" t="b">
+      <c r="H16" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
@@ -854,7 +869,7 @@
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="n">
@@ -863,7 +878,8 @@
       <c r="G17" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="3" t="b">
+      <c r="H17" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I17" s="0" t="s">
@@ -892,7 +908,7 @@
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="n">
@@ -901,7 +917,8 @@
       <c r="G18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="3" t="b">
+      <c r="H18" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
@@ -930,7 +947,7 @@
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="n">
@@ -939,7 +956,8 @@
       <c r="G19" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="3" t="b">
+      <c r="H19" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I19" s="0" t="s">
@@ -968,7 +986,7 @@
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="n">
@@ -977,7 +995,8 @@
       <c r="G20" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="3" t="b">
+      <c r="H20" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I20" s="0" t="s">
@@ -1006,7 +1025,7 @@
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="n">
@@ -1015,7 +1034,8 @@
       <c r="G21" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="3" t="b">
+      <c r="H21" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I21" s="0" t="s">
@@ -1044,7 +1064,7 @@
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="n">
@@ -1053,7 +1073,8 @@
       <c r="G22" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="3" t="b">
+      <c r="H22" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I22" s="0" t="s">
@@ -1082,7 +1103,7 @@
       <c r="D23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="n">
@@ -1091,7 +1112,8 @@
       <c r="G23" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="3" t="b">
+      <c r="H23" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I23" s="0" t="s">
@@ -1120,7 +1142,7 @@
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="0" t="n">
@@ -1129,7 +1151,8 @@
       <c r="G24" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="3" t="b">
+      <c r="H24" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I24" s="0" t="s">
@@ -1158,7 +1181,7 @@
       <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="n">
@@ -1167,7 +1190,8 @@
       <c r="G25" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="3" t="b">
+      <c r="H25" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I25" s="0" t="s">
@@ -1196,7 +1220,7 @@
       <c r="D26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="n">
@@ -1205,7 +1229,8 @@
       <c r="G26" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="3" t="b">
+      <c r="H26" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I26" s="0" t="s">
@@ -1234,7 +1259,7 @@
       <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="n">
@@ -1243,7 +1268,8 @@
       <c r="G27" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="3" t="b">
+      <c r="H27" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I27" s="0" t="s">

--- a/rnaSample/rnaSample_hbrown_02.10.20.xlsx
+++ b/rnaSample/rnaSample_hbrown_02.10.20.xlsx
@@ -197,7 +197,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E27"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/rnaSample/rnaSample_hbrown_02.10.20.xlsx
+++ b/rnaSample/rnaSample_hbrown_02.10.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8356D59-BEFE-B84B-9D94-3F85264413CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDBCEA3-714C-474E-9F7B-86266EF15441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="14780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -67,15 +67,15 @@
   </si>
   <si>
     <t>TRIzol</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -122,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,9 +514,8 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -559,9 +558,8 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -586,9 +584,8 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -613,9 +610,8 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -640,9 +636,8 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -667,9 +662,8 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -694,9 +688,8 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -721,9 +714,8 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -748,9 +740,8 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -775,9 +766,8 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -802,9 +792,8 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -829,9 +818,8 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -856,9 +844,8 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -883,9 +870,8 @@
       <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -910,9 +896,8 @@
       <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -937,9 +922,8 @@
       <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -964,9 +948,8 @@
       <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -991,9 +974,8 @@
       <c r="G19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H19" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1018,9 +1000,8 @@
       <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1045,9 +1026,8 @@
       <c r="G21" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H21" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1072,9 +1052,8 @@
       <c r="G22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1099,9 +1078,8 @@
       <c r="G23" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H23" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1126,9 +1104,8 @@
       <c r="G24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1153,9 +1130,8 @@
       <c r="G25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1180,9 +1156,8 @@
       <c r="G26" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H26" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1207,9 +1182,8 @@
       <c r="G27" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
